--- a/SI_Data.xlsx
+++ b/SI_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holtj\Documents\Projects\Ankur_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2828427-874D-4023-826F-6592F4B84662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128E952-389E-441A-80BA-CB676EFF0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="14790" windowHeight="21000" activeTab="3" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1C" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +515,12 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0.101136</v>
+      </c>
+      <c r="C5">
+        <v>0.111634</v>
+      </c>
       <c r="D5">
         <v>0.45993200000000001</v>
       </c>
@@ -523,6 +529,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0.22692999999999999</v>
+      </c>
+      <c r="C6">
+        <v>6.5439999999999998E-2</v>
+      </c>
       <c r="D6">
         <v>0.32111099999999998</v>
       </c>
@@ -531,6 +543,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>0.111634</v>
+      </c>
       <c r="D7">
         <v>0.16006200000000001</v>
       </c>
@@ -538,6 +553,9 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.16031799999999999</v>
       </c>
       <c r="D8">
         <v>0.24699699999999999</v>
@@ -717,7 +735,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +774,7 @@
         <v>2.0206168197623699E-2</v>
       </c>
       <c r="C3">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +785,7 @@
         <v>8.2386058380445396E-3</v>
       </c>
       <c r="C4">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +796,7 @@
         <v>3.6976528123582597E-2</v>
       </c>
       <c r="C5">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C6">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +818,7 @@
         <v>5.8663581798693099E-3</v>
       </c>
       <c r="C7">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +829,7 @@
         <v>7.1479248976747206E-2</v>
       </c>
       <c r="C8">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +866,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +893,7 @@
         <v>1.7965729400374501E-2</v>
       </c>
       <c r="C2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C3">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +915,7 @@
         <v>5.7284106797390703E-2</v>
       </c>
       <c r="C4">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +926,7 @@
         <v>2.20855577596063E-2</v>
       </c>
       <c r="C5">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,7 +937,7 @@
         <v>1.31672299977933E-2</v>
       </c>
       <c r="C6">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +948,7 @@
         <v>8.8840249862293698E-3</v>
       </c>
       <c r="C7">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C8">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1012,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SI_Data.xlsx
+++ b/SI_Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holtj\Documents\Projects\Ankur_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128E952-389E-441A-80BA-CB676EFF0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9B5FB-E2F3-485D-AED4-0E4A4F298E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1C" sheetId="1" r:id="rId1"/>
     <sheet name="Figure1D" sheetId="2" r:id="rId2"/>
     <sheet name="Figure1F" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure2A" sheetId="4" r:id="rId4"/>
-    <sheet name="Figure2B" sheetId="5" r:id="rId5"/>
+    <sheet name="Figure2A" sheetId="5" r:id="rId4"/>
+    <sheet name="Figure2B" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -862,152 +862,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DFFB7-49DD-4805-B4BC-F0DD5B0C2802}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.7965729400374501E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5.7284106797390703E-2</v>
-      </c>
-      <c r="C4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.20855577596063E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.31672299977933E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8.8840249862293698E-3</v>
-      </c>
-      <c r="C7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C8">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.9734080425028298E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E339AA8A-ABE1-4B64-A5C6-30F268B3B707}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1075,4 +929,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DFFB7-49DD-4805-B4BC-F0DD5B0C2802}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.7965729400374501E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.7284106797390703E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.20855577596063E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.31672299977933E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.8840249862293698E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.9734080425028298E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SI_Data.xlsx
+++ b/SI_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holtj\Documents\Projects\Ankur_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Jake_Desktop_Backup\Ankur_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9B5FB-E2F3-485D-AED4-0E4A4F298E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76C3E0-8B06-4F34-8C2A-7B9360FFC80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
+    <workbookView xWindow="19185" yWindow="0" windowWidth="19065" windowHeight="20910" activeTab="4" xr2:uid="{3277E345-6D66-4597-BA89-82F0C075615D}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1C" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>2.0206168197623699E-2</v>
       </c>
       <c r="C3">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>8.2386058380445396E-3</v>
       </c>
       <c r="C4">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>3.6976528123582597E-2</v>
       </c>
       <c r="C5">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>5.8663581798693099E-3</v>
       </c>
       <c r="C7">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>7.1479248976747206E-2</v>
       </c>
       <c r="C8">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
         <v>1.7965729400374501E-2</v>
       </c>
       <c r="C2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>5.7284106797390703E-2</v>
       </c>
       <c r="C4">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>2.20855577596063E-2</v>
       </c>
       <c r="C5">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>1.31672299977933E-2</v>
       </c>
       <c r="C6">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>8.8840249862293698E-3</v>
       </c>
       <c r="C7">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
